--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Fgf18-Fgfr1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Fgf18-Fgfr1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
@@ -89,9 +92,6 @@
   </si>
   <si>
     <t>Fgfr1</t>
-  </si>
-  <si>
-    <t>ECs</t>
   </si>
 </sst>
 </file>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,31 +522,31 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>10.019353</v>
+        <v>0.1601763333333333</v>
       </c>
       <c r="H2">
-        <v>30.058059</v>
+        <v>0.480529</v>
       </c>
       <c r="I2">
-        <v>0.9071594532571753</v>
+        <v>0.01412814675921196</v>
       </c>
       <c r="J2">
-        <v>0.9071594532571753</v>
+        <v>0.01412814675921196</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>3.769169999999999</v>
+        <v>7.955277333333332</v>
       </c>
       <c r="N2">
-        <v>11.30751</v>
+        <v>23.865832</v>
       </c>
       <c r="O2">
-        <v>0.02686645020528053</v>
+        <v>0.05015625076675284</v>
       </c>
       <c r="P2">
-        <v>0.02686645020528053</v>
+        <v>0.05015625076675283</v>
       </c>
       <c r="Q2">
-        <v>37.76464474701</v>
+        <v>1.274247153903111</v>
       </c>
       <c r="R2">
-        <v>339.88180272309</v>
+        <v>11.468224385128</v>
       </c>
       <c r="S2">
-        <v>0.02437215427918341</v>
+        <v>0.0007086148717245214</v>
       </c>
       <c r="T2">
-        <v>0.02437215427918341</v>
+        <v>0.0007086148717245213</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,31 +584,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>10.019353</v>
+        <v>0.1601763333333333</v>
       </c>
       <c r="H3">
-        <v>30.058059</v>
+        <v>0.480529</v>
       </c>
       <c r="I3">
-        <v>0.9071594532571753</v>
+        <v>0.01412814675921196</v>
       </c>
       <c r="J3">
-        <v>0.9071594532571753</v>
+        <v>0.01412814675921196</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -617,28 +617,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>82.48060333333332</v>
+        <v>82.48060333333333</v>
       </c>
       <c r="N3">
         <v>247.44181</v>
       </c>
       <c r="O3">
-        <v>0.5879175050094569</v>
+        <v>0.520021823355633</v>
       </c>
       <c r="P3">
-        <v>0.5879175050094571</v>
+        <v>0.520021823355633</v>
       </c>
       <c r="Q3">
-        <v>826.4022804496433</v>
+        <v>13.21144061305444</v>
       </c>
       <c r="R3">
-        <v>7437.62052404679</v>
+        <v>118.90296551749</v>
       </c>
       <c r="S3">
-        <v>0.5333349224047016</v>
+        <v>0.00734694463836138</v>
       </c>
       <c r="T3">
-        <v>0.5333349224047017</v>
+        <v>0.00734694463836138</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,31 +646,31 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>10.019353</v>
+        <v>0.1601763333333333</v>
       </c>
       <c r="H4">
-        <v>30.058059</v>
+        <v>0.480529</v>
       </c>
       <c r="I4">
-        <v>0.9071594532571753</v>
+        <v>0.01412814675921196</v>
       </c>
       <c r="J4">
-        <v>0.9071594532571753</v>
+        <v>0.01412814675921196</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>53.47143866666666</v>
+        <v>66.90297433333333</v>
       </c>
       <c r="N4">
-        <v>160.414316</v>
+        <v>200.708923</v>
       </c>
       <c r="O4">
-        <v>0.3811416689464024</v>
+        <v>0.4218083439585467</v>
       </c>
       <c r="P4">
-        <v>0.3811416689464025</v>
+        <v>0.4218083439585465</v>
       </c>
       <c r="Q4">
-        <v>535.7492194191826</v>
+        <v>10.71627311780744</v>
       </c>
       <c r="R4">
-        <v>4821.742974772644</v>
+        <v>96.44645806026699</v>
       </c>
       <c r="S4">
-        <v>0.3457562680149457</v>
+        <v>0.005959370187706504</v>
       </c>
       <c r="T4">
-        <v>0.3457562680149458</v>
+        <v>0.005959370187706503</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,31 +708,31 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>22</v>
-      </c>
       <c r="E5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>10.019353</v>
+        <v>0.1601763333333333</v>
       </c>
       <c r="H5">
-        <v>30.058059</v>
+        <v>0.480529</v>
       </c>
       <c r="I5">
-        <v>0.9071594532571753</v>
+        <v>0.01412814675921196</v>
       </c>
       <c r="J5">
-        <v>0.9071594532571753</v>
+        <v>0.01412814675921196</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.5716056666666667</v>
+        <v>1.271033333333333</v>
       </c>
       <c r="N5">
-        <v>1.714817</v>
+        <v>3.8131</v>
       </c>
       <c r="O5">
-        <v>0.004074375838860062</v>
+        <v>0.008013581919067616</v>
       </c>
       <c r="P5">
-        <v>0.004074375838860062</v>
+        <v>0.008013581919067614</v>
       </c>
       <c r="Q5">
-        <v>5.727118951133667</v>
+        <v>0.2035894588777778</v>
       </c>
       <c r="R5">
-        <v>51.54407056020301</v>
+        <v>1.8323051299</v>
       </c>
       <c r="S5">
-        <v>0.003696108558344539</v>
+        <v>0.0001132170614195547</v>
       </c>
       <c r="T5">
-        <v>0.003696108558344539</v>
+        <v>0.0001132170614195547</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -770,31 +770,31 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F6">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G6">
-        <v>0.898936</v>
+        <v>10.019353</v>
       </c>
       <c r="H6">
-        <v>2.696808</v>
+        <v>30.058059</v>
       </c>
       <c r="I6">
-        <v>0.08139031435195386</v>
+        <v>0.8837441004581448</v>
       </c>
       <c r="J6">
-        <v>0.08139031435195386</v>
+        <v>0.8837441004581448</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>3.769169999999999</v>
+        <v>7.955277333333332</v>
       </c>
       <c r="N6">
-        <v>11.30751</v>
+        <v>23.865832</v>
       </c>
       <c r="O6">
-        <v>0.02686645020528053</v>
+        <v>0.05015625076675284</v>
       </c>
       <c r="P6">
-        <v>0.02686645020528053</v>
+        <v>0.05015625076675283</v>
       </c>
       <c r="Q6">
-        <v>3.388242603119999</v>
+        <v>79.70673181556533</v>
       </c>
       <c r="R6">
-        <v>30.49418342808</v>
+        <v>717.3605863400879</v>
       </c>
       <c r="S6">
-        <v>0.002186668827728897</v>
+        <v>0.04432529071621712</v>
       </c>
       <c r="T6">
-        <v>0.002186668827728898</v>
+        <v>0.04432529071621712</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -832,31 +832,31 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F7">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G7">
-        <v>0.898936</v>
+        <v>10.019353</v>
       </c>
       <c r="H7">
-        <v>2.696808</v>
+        <v>30.058059</v>
       </c>
       <c r="I7">
-        <v>0.08139031435195386</v>
+        <v>0.8837441004581448</v>
       </c>
       <c r="J7">
-        <v>0.08139031435195386</v>
+        <v>0.8837441004581448</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -865,28 +865,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>82.48060333333332</v>
+        <v>82.48060333333333</v>
       </c>
       <c r="N7">
         <v>247.44181</v>
       </c>
       <c r="O7">
-        <v>0.5879175050094569</v>
+        <v>0.520021823355633</v>
       </c>
       <c r="P7">
-        <v>0.5879175050094571</v>
+        <v>0.520021823355633</v>
       </c>
       <c r="Q7">
-        <v>74.14478363805331</v>
+        <v>826.4022804496434</v>
       </c>
       <c r="R7">
-        <v>667.3030527424798</v>
+        <v>7437.62052404679</v>
       </c>
       <c r="S7">
-        <v>0.04785079054573611</v>
+        <v>0.4595662185000281</v>
       </c>
       <c r="T7">
-        <v>0.04785079054573612</v>
+        <v>0.4595662185000281</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -894,31 +894,31 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F8">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G8">
-        <v>0.898936</v>
+        <v>10.019353</v>
       </c>
       <c r="H8">
-        <v>2.696808</v>
+        <v>30.058059</v>
       </c>
       <c r="I8">
-        <v>0.08139031435195386</v>
+        <v>0.8837441004581448</v>
       </c>
       <c r="J8">
-        <v>0.08139031435195386</v>
+        <v>0.8837441004581448</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>53.47143866666666</v>
+        <v>66.90297433333333</v>
       </c>
       <c r="N8">
-        <v>160.414316</v>
+        <v>200.708923</v>
       </c>
       <c r="O8">
-        <v>0.3811416689464024</v>
+        <v>0.4218083439585467</v>
       </c>
       <c r="P8">
-        <v>0.3811416689464025</v>
+        <v>0.4218083439585465</v>
       </c>
       <c r="Q8">
-        <v>48.06740118925866</v>
+        <v>670.3245165956064</v>
       </c>
       <c r="R8">
-        <v>432.6066107033279</v>
+        <v>6032.920649360457</v>
       </c>
       <c r="S8">
-        <v>0.03102124024817603</v>
+        <v>0.3727706354973855</v>
       </c>
       <c r="T8">
-        <v>0.03102124024817603</v>
+        <v>0.3727706354973854</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -956,31 +956,31 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
         <v>23</v>
       </c>
-      <c r="C9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" t="s">
-        <v>22</v>
-      </c>
       <c r="E9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F9">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G9">
-        <v>0.898936</v>
+        <v>10.019353</v>
       </c>
       <c r="H9">
-        <v>2.696808</v>
+        <v>30.058059</v>
       </c>
       <c r="I9">
-        <v>0.08139031435195386</v>
+        <v>0.8837441004581448</v>
       </c>
       <c r="J9">
-        <v>0.08139031435195386</v>
+        <v>0.8837441004581448</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.5716056666666667</v>
+        <v>1.271033333333333</v>
       </c>
       <c r="N9">
-        <v>1.714817</v>
+        <v>3.8131</v>
       </c>
       <c r="O9">
-        <v>0.004074375838860062</v>
+        <v>0.008013581919067616</v>
       </c>
       <c r="P9">
-        <v>0.004074375838860062</v>
+        <v>0.008013581919067614</v>
       </c>
       <c r="Q9">
-        <v>0.5138369115706667</v>
+        <v>12.73493164143334</v>
       </c>
       <c r="R9">
-        <v>4.624532204136</v>
+        <v>114.6143847729</v>
       </c>
       <c r="S9">
-        <v>0.0003316147303128262</v>
+        <v>0.007081955744514064</v>
       </c>
       <c r="T9">
-        <v>0.0003316147303128262</v>
+        <v>0.007081955744514062</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1018,31 +1018,31 @@
         <v>22</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D10" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F10">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G10">
-        <v>0.126465</v>
+        <v>1.010195666666666</v>
       </c>
       <c r="H10">
-        <v>0.379395</v>
+        <v>3.030587</v>
       </c>
       <c r="I10">
-        <v>0.01145023239087081</v>
+        <v>0.08910300502687639</v>
       </c>
       <c r="J10">
-        <v>0.01145023239087081</v>
+        <v>0.0891030050268764</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>3.769169999999999</v>
+        <v>7.955277333333332</v>
       </c>
       <c r="N10">
-        <v>11.30751</v>
+        <v>23.865832</v>
       </c>
       <c r="O10">
-        <v>0.02686645020528053</v>
+        <v>0.05015625076675284</v>
       </c>
       <c r="P10">
-        <v>0.02686645020528053</v>
+        <v>0.05015625076675283</v>
       </c>
       <c r="Q10">
-        <v>0.4766680840499999</v>
+        <v>8.036386689264887</v>
       </c>
       <c r="R10">
-        <v>4.290012756449999</v>
+        <v>72.32748020338398</v>
       </c>
       <c r="S10">
-        <v>0.0003076270983682209</v>
+        <v>0.004469072664199251</v>
       </c>
       <c r="T10">
-        <v>0.0003076270983682209</v>
+        <v>0.004469072664199251</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1080,31 +1080,31 @@
         <v>22</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F11">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G11">
-        <v>0.126465</v>
+        <v>1.010195666666666</v>
       </c>
       <c r="H11">
-        <v>0.379395</v>
+        <v>3.030587</v>
       </c>
       <c r="I11">
-        <v>0.01145023239087081</v>
+        <v>0.08910300502687639</v>
       </c>
       <c r="J11">
-        <v>0.01145023239087081</v>
+        <v>0.0891030050268764</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1113,28 +1113,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>82.48060333333332</v>
+        <v>82.48060333333333</v>
       </c>
       <c r="N11">
         <v>247.44181</v>
       </c>
       <c r="O11">
-        <v>0.5879175050094569</v>
+        <v>0.520021823355633</v>
       </c>
       <c r="P11">
-        <v>0.5879175050094571</v>
+        <v>0.520021823355633</v>
       </c>
       <c r="Q11">
-        <v>10.43090950055</v>
+        <v>83.32154807138554</v>
       </c>
       <c r="R11">
-        <v>93.87818550494998</v>
+        <v>749.89393264247</v>
       </c>
       <c r="S11">
-        <v>0.006731792059019238</v>
+        <v>0.04633550714054239</v>
       </c>
       <c r="T11">
-        <v>0.006731792059019239</v>
+        <v>0.0463355071405424</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1142,31 +1142,31 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D12" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F12">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G12">
-        <v>0.126465</v>
+        <v>1.010195666666666</v>
       </c>
       <c r="H12">
-        <v>0.379395</v>
+        <v>3.030587</v>
       </c>
       <c r="I12">
-        <v>0.01145023239087081</v>
+        <v>0.08910300502687639</v>
       </c>
       <c r="J12">
-        <v>0.01145023239087081</v>
+        <v>0.0891030050268764</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>53.47143866666666</v>
+        <v>66.90297433333333</v>
       </c>
       <c r="N12">
-        <v>160.414316</v>
+        <v>200.708923</v>
       </c>
       <c r="O12">
-        <v>0.3811416689464024</v>
+        <v>0.4218083439585467</v>
       </c>
       <c r="P12">
-        <v>0.3811416689464025</v>
+        <v>0.4218083439585465</v>
       </c>
       <c r="Q12">
-        <v>6.762265490979999</v>
+        <v>67.58509475864454</v>
       </c>
       <c r="R12">
-        <v>60.86038941881999</v>
+        <v>608.2658528278009</v>
       </c>
       <c r="S12">
-        <v>0.004364160683280658</v>
+        <v>0.03758439099211679</v>
       </c>
       <c r="T12">
-        <v>0.004364160683280658</v>
+        <v>0.03758439099211679</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1204,61 +1204,309 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
         <v>23</v>
       </c>
-      <c r="C13" t="s">
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G13">
+        <v>1.010195666666666</v>
+      </c>
+      <c r="H13">
+        <v>3.030587</v>
+      </c>
+      <c r="I13">
+        <v>0.08910300502687639</v>
+      </c>
+      <c r="J13">
+        <v>0.0891030050268764</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>1.271033333333333</v>
+      </c>
+      <c r="N13">
+        <v>3.8131</v>
+      </c>
+      <c r="O13">
+        <v>0.008013581919067616</v>
+      </c>
+      <c r="P13">
+        <v>0.008013581919067614</v>
+      </c>
+      <c r="Q13">
+        <v>1.283992365522222</v>
+      </c>
+      <c r="R13">
+        <v>11.5559312897</v>
+      </c>
+      <c r="S13">
+        <v>0.0007140342300179676</v>
+      </c>
+      <c r="T13">
+        <v>0.0007140342300179675</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
         <v>24</v>
       </c>
-      <c r="D13" t="s">
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G14">
+        <v>0.1476666666666667</v>
+      </c>
+      <c r="H14">
+        <v>0.443</v>
+      </c>
+      <c r="I14">
+        <v>0.01302474775576687</v>
+      </c>
+      <c r="J14">
+        <v>0.01302474775576687</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>7.955277333333332</v>
+      </c>
+      <c r="N14">
+        <v>23.865832</v>
+      </c>
+      <c r="O14">
+        <v>0.05015625076675284</v>
+      </c>
+      <c r="P14">
+        <v>0.05015625076675283</v>
+      </c>
+      <c r="Q14">
+        <v>1.174729286222222</v>
+      </c>
+      <c r="R14">
+        <v>10.572563576</v>
+      </c>
+      <c r="S14">
+        <v>0.0006532725146119444</v>
+      </c>
+      <c r="T14">
+        <v>0.0006532725146119443</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G15">
+        <v>0.1476666666666667</v>
+      </c>
+      <c r="H15">
+        <v>0.443</v>
+      </c>
+      <c r="I15">
+        <v>0.01302474775576687</v>
+      </c>
+      <c r="J15">
+        <v>0.01302474775576687</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>82.48060333333333</v>
+      </c>
+      <c r="N15">
+        <v>247.44181</v>
+      </c>
+      <c r="O15">
+        <v>0.520021823355633</v>
+      </c>
+      <c r="P15">
+        <v>0.520021823355633</v>
+      </c>
+      <c r="Q15">
+        <v>12.17963575888889</v>
+      </c>
+      <c r="R15">
+        <v>109.61672183</v>
+      </c>
+      <c r="S15">
+        <v>0.006773153076701076</v>
+      </c>
+      <c r="T15">
+        <v>0.006773153076701076</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
         <v>22</v>
       </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="F13">
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
         <v>0.3333333333333333</v>
       </c>
-      <c r="G13">
-        <v>0.126465</v>
-      </c>
-      <c r="H13">
-        <v>0.379395</v>
-      </c>
-      <c r="I13">
-        <v>0.01145023239087081</v>
-      </c>
-      <c r="J13">
-        <v>0.01145023239087081</v>
-      </c>
-      <c r="K13">
-        <v>3</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <v>0.5716056666666667</v>
-      </c>
-      <c r="N13">
-        <v>1.714817</v>
-      </c>
-      <c r="O13">
-        <v>0.004074375838860062</v>
-      </c>
-      <c r="P13">
-        <v>0.004074375838860062</v>
-      </c>
-      <c r="Q13">
-        <v>0.072288110635</v>
-      </c>
-      <c r="R13">
-        <v>0.650592995715</v>
-      </c>
-      <c r="S13">
-        <v>4.665255020269693E-05</v>
-      </c>
-      <c r="T13">
-        <v>4.665255020269692E-05</v>
+      <c r="G16">
+        <v>0.1476666666666667</v>
+      </c>
+      <c r="H16">
+        <v>0.443</v>
+      </c>
+      <c r="I16">
+        <v>0.01302474775576687</v>
+      </c>
+      <c r="J16">
+        <v>0.01302474775576687</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>66.90297433333333</v>
+      </c>
+      <c r="N16">
+        <v>200.708923</v>
+      </c>
+      <c r="O16">
+        <v>0.4218083439585467</v>
+      </c>
+      <c r="P16">
+        <v>0.4218083439585465</v>
+      </c>
+      <c r="Q16">
+        <v>9.879339209888888</v>
+      </c>
+      <c r="R16">
+        <v>88.914052889</v>
+      </c>
+      <c r="S16">
+        <v>0.00549394728133782</v>
+      </c>
+      <c r="T16">
+        <v>0.005493947281337818</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G17">
+        <v>0.1476666666666667</v>
+      </c>
+      <c r="H17">
+        <v>0.443</v>
+      </c>
+      <c r="I17">
+        <v>0.01302474775576687</v>
+      </c>
+      <c r="J17">
+        <v>0.01302474775576687</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>1.271033333333333</v>
+      </c>
+      <c r="N17">
+        <v>3.8131</v>
+      </c>
+      <c r="O17">
+        <v>0.008013581919067616</v>
+      </c>
+      <c r="P17">
+        <v>0.008013581919067614</v>
+      </c>
+      <c r="Q17">
+        <v>0.1876892555555556</v>
+      </c>
+      <c r="R17">
+        <v>1.6892033</v>
+      </c>
+      <c r="S17">
+        <v>0.0001043748831160299</v>
+      </c>
+      <c r="T17">
+        <v>0.0001043748831160299</v>
       </c>
     </row>
   </sheetData>
